--- a/docRequerimientos (2).xlsx
+++ b/docRequerimientos (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Producto" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,14 +21,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t xml:space="preserve">Visión del producto</t>
   </si>
   <si>
+    <t xml:space="preserve">Diviertete mientras aprendes. Es un juego didactico emocionante de trivias con diferentes categorias que puedes escoger, obtener premios de acuerdo a tu puntaje acumulado y compartir en tus redes sociales.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objetivos y metas</t>
   </si>
   <si>
+    <t xml:space="preserve">El jugador debe contestar preguntas sobre conocimientos generales. Cada pregunta tiene un valor en puntos, con distintas opciones para elegir como respuesta y debe hacerlo dentro de un determinado tiempo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stakeholders</t>
   </si>
   <si>
@@ -65,6 +71,39 @@
     <t xml:space="preserve">bruzualricardo2006@gmail.com </t>
   </si>
   <si>
+    <t xml:space="preserve">Desarrolladores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andrewfuentes55@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heider Delgado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heider2112@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katherine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kathymcolina@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesenia Gil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeseniagilc@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zulay Pineda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zulay.pineda.19@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product backlog</t>
   </si>
   <si>
@@ -114,6 +153,36 @@
   </si>
   <si>
     <t xml:space="preserve">yo como administrador quiero definir la cantidad de premios instantaneos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo como usuario quiero registrarme en la aplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo como usuario quiero iniciar sesión en la aplicación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo como usuario quiero escoger el tipo de trivia a jugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo como usuario quiero responder una trivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo como usuario quiero ganar puntos al responder una trivia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo como usuario quiero ver el ranking de los jugadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo como usuario quiero participar por premios segun el ranking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo como usuario quiero participar por premios instantaneos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo como administrador quiero escoger de manera automatica los ganadores de los sorteos por ranking en una fecha especifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo como usuario quiero consultar la ayuda</t>
   </si>
 </sst>
 </file>
@@ -123,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,8 +230,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,14 +260,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93CDDD"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor rgb="FF93CDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF31859C"/>
         <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93CDDD"/>
+        <bgColor rgb="FF66CCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -218,13 +313,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top/>
@@ -253,6 +341,21 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF66CCFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF66CCFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF66CCFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF66CCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top/>
@@ -285,7 +388,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,7 +401,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -306,43 +409,55 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,38 +473,34 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -434,7 +545,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF66CCFF"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -459,20 +570,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:E14"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.79"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1457489878543"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9311740890688"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.8704453441296"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,25 +597,29 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -512,91 +631,135 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="12"/>
       <c r="C8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="12"/>
-      <c r="C9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="12"/>
-      <c r="C10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="18"/>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -609,20 +772,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="11.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="77.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="16" width="8.79"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="78.412955465587"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="19" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,172 +801,318 @@
       <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="19" t="s">
+      <c r="C18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="C20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="C21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="23" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="20" t="n">
+      <c r="C22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="C23" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="E5" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="7.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="C24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" customFormat="false" ht="7.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -811,7 +1120,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
